--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44236</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44174</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44237</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44194</v>
+        <v>44231</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44174</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44231</v>
+        <v>44236</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>3240</v>
+        <v>8000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1620</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44232</v>
+        <v>44194</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>3000</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44237</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>3000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44174</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>3240</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44174</v>
+        <v>44231</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="O6" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N9" t="n">
         <v>3000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44168</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,29 +1244,29 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
         <v>4000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
         <v>3000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44174</v>
+        <v>44237</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44231</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
         <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>3400</v>
+        <v>3240</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1700</v>
+        <v>1620</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44174</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="P7" t="n">
-        <v>3240</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44237</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,29 +1164,29 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>4000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44168</v>
+        <v>44231</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44237</v>
+        <v>44232</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44174</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44238</v>
+        <v>44231</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O6" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44174</v>
+        <v>44194</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N11" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="P11" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44236</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44232</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
         <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44174</v>
+        <v>44168</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44231</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44237</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44194</v>
+        <v>44237</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44168</v>
+        <v>44174</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44232</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44237</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44232</v>
+        <v>44237</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44236</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,29 +1164,29 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>4000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44231</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44232</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44237</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44237</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,31 +1244,111 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>170</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100101008</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>150</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>3400</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>3400</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>3400</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>1700</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44237</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44232</v>
+        <v>44168</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44231</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44208</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N8" t="n">
         <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44237</v>
+        <v>44232</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44168</v>
+        <v>44188</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>3240</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44231</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
         <v>3600</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44174</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>4000</v>
+        <v>3240</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1620</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44168</v>
+        <v>44231</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44231</v>
+        <v>44237</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N9" t="n">
         <v>3000</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44533</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44582</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N10" t="n">
         <v>3000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44236</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,31 +1324,111 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
         <v>4000</v>
       </c>
       <c r="P12" t="n">
+        <v>3800</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>1900</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100101008</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>150</v>
+      </c>
+      <c r="N13" t="n">
         <v>4000</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="O13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S12" t="n">
+      <c r="S13" t="n">
         <v>2000</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T13" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44174</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P2" t="n">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N3" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>3000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N6" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="O6" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44168</v>
+        <v>44237</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44582</v>
+        <v>44232</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44236</v>
+        <v>44582</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44586</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44582</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44582</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,31 +1404,111 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>380</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100101008</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>150</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N14" t="n">
         <v>4000</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O14" t="n">
         <v>4000</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>4000</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="S14" t="n">
         <v>2000</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T14" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O2" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>3240</v>
+        <v>8000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1620</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44586</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44236</v>
+        <v>44582</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N5" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44237</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44232</v>
+        <v>44237</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44174</v>
+        <v>44231</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44586</v>
+        <v>44208</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N11" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44582</v>
+        <v>44174</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44236</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O14" t="n">
         <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44232</v>
+        <v>44617</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44232</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P13" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,31 +1484,111 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>200</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3200</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>1600</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44236</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>100101008</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>300</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N15" t="n">
         <v>3600</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O15" t="n">
         <v>4000</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>3800</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S14" t="n">
+      <c r="S15" t="n">
         <v>1900</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T15" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44586</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44582</v>
+        <v>44617</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44208</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N8" t="n">
         <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44237</v>
+        <v>44586</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44231</v>
+        <v>44237</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44208</v>
+        <v>44231</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44617</v>
+        <v>44168</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44174</v>
+        <v>44582</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N14" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44236</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O15" t="n">
         <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44174</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O4" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44617</v>
+        <v>44208</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N5" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44194</v>
+        <v>44617</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44586</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44237</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O10" t="n">
         <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44231</v>
+        <v>44586</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N11" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O11" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P11" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44168</v>
+        <v>44582</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44582</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44237</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O15" t="n">
         <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44617</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44238</v>
+        <v>44208</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44617</v>
+        <v>44232</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44174</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44168</v>
+        <v>44586</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44586</v>
+        <v>44188</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44236</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O13" t="n">
         <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44231</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
         <v>3600</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44617</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O3" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44232</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
         <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44231</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44237</v>
+        <v>44582</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44174</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44582</v>
+        <v>44237</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P13" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44232</v>
+        <v>44174</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>3000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44231</v>
+        <v>44208</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N7" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44586</v>
+        <v>44617</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44582</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44237</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
         <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
         <v>3600</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44617</v>
+        <v>44582</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="N13" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O13" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44586</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="O15" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44174</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44194</v>
+        <v>44236</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44188</v>
+        <v>44231</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O6" t="n">
         <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>3240</v>
+        <v>3400</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1620</v>
+        <v>1700</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44208</v>
+        <v>44237</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44617</v>
+        <v>44194</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44582</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44237</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44232</v>
+        <v>44174</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44168</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,29 +1324,29 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
         <v>4000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44582</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P15" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>3600</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44232</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
         <v>3000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44231</v>
+        <v>44582</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N6" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44237</v>
+        <v>44208</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44194</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
         <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44582</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44174</v>
+        <v>44236</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44168</v>
+        <v>44232</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44586</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O13" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P13" t="n">
-        <v>3240</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1620</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44586</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44617</v>
+        <v>44168</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N15" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44237</v>
+        <v>44174</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44586</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44617</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44236</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44582</v>
+        <v>44168</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44617</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O8" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="P8" t="n">
-        <v>3240</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1620</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44208</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>3600</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44236</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O11" t="n">
         <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44232</v>
+        <v>44582</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44586</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44174</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P2" t="n">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44586</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44586</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44238</v>
+        <v>44208</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44617</v>
+        <v>44232</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44208</v>
+        <v>44237</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44237</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O10" t="n">
         <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44582</v>
+        <v>44231</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O13" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44231</v>
+        <v>44582</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44238</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44617</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O2" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="P2" t="n">
-        <v>3240</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1620</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N3" t="n">
         <v>3000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44586</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44236</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44168</v>
+        <v>44586</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44237</v>
+        <v>44582</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44231</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="O12" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="P12" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>3600</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44582</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44617</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44174</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44236</v>
+        <v>44617</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1900</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44586</v>
+        <v>44168</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44168</v>
+        <v>44236</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44232</v>
+        <v>44582</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44582</v>
+        <v>44194</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44586</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44231</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44237</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
         <v>3600</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44231</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1487,13 +1487,13 @@
         <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="O14" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O4" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44617</v>
+        <v>44236</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O5" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44168</v>
+        <v>44582</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="N6" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>5000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44194</v>
+        <v>44232</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>3000</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44586</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44231</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="O11" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44237</v>
+        <v>44617</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1900</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1487,13 +1487,13 @@
         <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="O14" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P14" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44232</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
         <v>3000</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S15" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44174</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44237</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44236</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44582</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44586</v>
+        <v>44617</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44232</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44236</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
         <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44617</v>
+        <v>44586</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44174</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44231</v>
+        <v>44582</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44168</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44586</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O2" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P2" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44174</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>3000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44232</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44617</v>
+        <v>44237</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O8" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44582</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44586</v>
+        <v>44168</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P13" t="n">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44582</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44168</v>
+        <v>44236</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44586</v>
+        <v>44617</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N2" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O2" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44174</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44232</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
         <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44231</v>
+        <v>44586</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44237</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
         <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44617</v>
+        <v>44582</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="N9" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44582</v>
+        <v>44237</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44168</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,29 +1244,29 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
         <v>4000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44168</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44208</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N13" t="n">
         <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P13" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44236</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O14" t="n">
         <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44617</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44582</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N3" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44231</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44586</v>
+        <v>44168</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44236</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O8" t="n">
         <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
         <v>5000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44237</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44168</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44208</v>
+        <v>44237</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44236</v>
+        <v>44617</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="O14" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1900</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44232</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44231</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
         <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>3400</v>
+        <v>3240</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1700</v>
+        <v>1620</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44617</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="P5" t="n">
-        <v>3240</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1620</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44168</v>
+        <v>44586</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44586</v>
+        <v>44231</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44174</v>
+        <v>44236</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44617</v>
+        <v>44232</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44168</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,29 +1564,29 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N15" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
         <v>4000</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4000</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4000</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>2000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44231</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O4" t="n">
         <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>3240</v>
+        <v>3400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1620</v>
+        <v>1700</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44617</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>3240</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>1620</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44586</v>
+        <v>44168</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44194</v>
+        <v>44236</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44231</v>
+        <v>44586</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44232</v>
+        <v>44617</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44174</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44582</v>
+        <v>44237</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O4" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44586</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N8" t="n">
         <v>3000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44168</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N12" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="O12" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="P12" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44237</v>
+        <v>44194</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44232</v>
+        <v>44586</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44168</v>
+        <v>44582</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44174</v>
+        <v>44237</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44237</v>
+        <v>44586</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44236</v>
+        <v>44208</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44617</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O5" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44231</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44582</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>3240</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1620</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44231</v>
+        <v>44617</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="O9" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="P9" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1700</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44174</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44586</v>
+        <v>44236</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44582</v>
+        <v>44188</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44168</v>
+        <v>44978</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44617</v>
+        <v>44168</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44232</v>
+        <v>44617</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44174</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44194</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,31 +1564,111 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>300</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3600</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3800</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44188</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100101008</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>150</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>3000</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O16" t="n">
         <v>3400</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>3240</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Provincia de Linares</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="S16" t="n">
         <v>1620</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T16" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44980</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>4000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44231</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="O6" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44582</v>
+        <v>44231</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44978</v>
+        <v>44582</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44168</v>
+        <v>44978</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N9" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44617</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N10" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44232</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44232</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,13 +1327,13 @@
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44174</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44238</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44188</v>
+        <v>44236</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,31 +1644,111 @@
         </is>
       </c>
       <c r="M16" t="n">
+        <v>300</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3800</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>1900</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44188</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100101008</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>150</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N17" t="n">
         <v>3000</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O17" t="n">
         <v>3400</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>3240</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Provincia de Linares</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="S17" t="n">
         <v>1620</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T17" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44237</v>
+        <v>44980</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O2" t="n">
         <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44586</v>
+        <v>44232</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44208</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44980</v>
+        <v>44168</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,29 +764,29 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
         <v>4000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4000</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44586</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44231</v>
+        <v>44978</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N7" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44978</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44232</v>
+        <v>44237</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44174</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P13" t="n">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44238</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O14" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44236</v>
+        <v>44617</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P16" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1900</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44188</v>
+        <v>44208</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N17" t="n">
         <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44980</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44232</v>
+        <v>44978</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N3" t="n">
         <v>3000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44168</v>
+        <v>44237</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44586</v>
+        <v>44174</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="O6" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44978</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44582</v>
+        <v>44980</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44582</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44231</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44237</v>
+        <v>44232</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44194</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
         <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P13" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44231</v>
+        <v>44586</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44238</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O15" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44168</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N16" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O16" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44978</v>
+        <v>44582</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44617</v>
+        <v>44238</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O4" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44237</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44174</v>
+        <v>44236</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O6" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44978</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44980</v>
+        <v>44194</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
         <v>5000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44232</v>
+        <v>44617</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44194</v>
+        <v>44980</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44586</v>
+        <v>44208</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44238</v>
+        <v>44188</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44168</v>
+        <v>44232</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44236</v>
+        <v>44168</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,29 +1724,29 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N17" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O17" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
         <v>4000</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>1900</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
         <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44582</v>
+        <v>44978</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44208</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44236</v>
+        <v>44586</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44194</v>
+        <v>44237</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44237</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O9" t="n">
         <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44586</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44231</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="P11" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1700</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44617</v>
+        <v>44236</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44980</v>
+        <v>44231</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P13" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44208</v>
+        <v>44582</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44232</v>
+        <v>44174</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44978</v>
+        <v>44237</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44174</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44586</v>
+        <v>44232</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44980</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
         <v>4000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>3600</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44980</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
         <v>4000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44978</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N10" t="n">
         <v>3000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44208</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44236</v>
+        <v>44188</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44231</v>
+        <v>44617</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="O13" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="P13" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1700</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44188</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
         <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P15" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44174</v>
+        <v>44586</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44168</v>
+        <v>44231</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="O17" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="P17" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44236</v>
+        <v>44586</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44237</v>
+        <v>44232</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44174</v>
+        <v>44168</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44168</v>
+        <v>44617</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44232</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
         <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44980</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
         <v>4000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44980</v>
+        <v>44237</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
         <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44978</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44208</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44617</v>
+        <v>44978</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N13" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44582</v>
+        <v>44208</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44231</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44586</v>
+        <v>44582</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N16" t="n">
         <v>5000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44231</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44586</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O2" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44232</v>
+        <v>44978</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N3" t="n">
         <v>3000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44617</v>
+        <v>44168</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="N5" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O5" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P5" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44188</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
         <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44980</v>
+        <v>44236</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
         <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>3600</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44237</v>
+        <v>44980</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O9" t="n">
         <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44238</v>
+        <v>44582</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44978</v>
+        <v>44586</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O13" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
         <v>3000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P15" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44582</v>
+        <v>44188</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44238</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44586</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O2" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P2" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44978</v>
+        <v>44232</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>3000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44168</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,29 +684,29 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>4000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44168</v>
+        <v>44617</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
         <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44980</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O7" t="n">
         <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>3600</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44980</v>
+        <v>44237</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
         <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O11" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44582</v>
+        <v>44238</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44586</v>
+        <v>44978</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N13" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N14" t="n">
         <v>3000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44188</v>
+        <v>44582</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O16" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P16" t="n">
-        <v>3240</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1620</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44238</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44237</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O4" t="n">
         <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44168</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44236</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O7" t="n">
         <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44237</v>
+        <v>44168</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,29 +1004,29 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N8" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
         <v>4000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>1900</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44980</v>
+        <v>44582</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44174</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44582</v>
+        <v>44978</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44232</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
         <v>3000</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44238</v>
+        <v>44208</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N17" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44232</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>3000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44980</v>
+        <v>44978</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>3600</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44582</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44168</v>
+        <v>44980</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44582</v>
+        <v>44194</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44238</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44208</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44978</v>
+        <v>44236</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44586</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44232</v>
+        <v>44586</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44231</v>
+        <v>44168</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N15" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>3400</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44188</v>
+        <v>44617</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O16" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="P16" t="n">
-        <v>3240</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1620</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44208</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44232</v>
+        <v>44168</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44978</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N5" t="n">
         <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44237</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O6" t="n">
         <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
         <v>5000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44980</v>
+        <v>44231</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44194</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44174</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44208</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O12" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>3600</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44586</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44168</v>
+        <v>44582</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44236</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O16" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44188</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1727,13 +1727,13 @@
         <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P17" t="n">
-        <v>4000</v>
+        <v>3240</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>1620</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O2" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44980</v>
+        <v>44978</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44232</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>3000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44978</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44231</v>
+        <v>44582</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N8" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44980</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44617</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44174</v>
+        <v>44188</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P12" t="n">
-        <v>3200</v>
+        <v>3240</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
         <v>3600</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44168</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44582</v>
+        <v>44617</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44236</v>
+        <v>44231</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P16" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O17" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P17" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44168</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,29 +524,29 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>4000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44232</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>3000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44978</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44582</v>
+        <v>44231</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44980</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44232</v>
+        <v>44617</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44188</v>
+        <v>44174</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O12" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="P12" t="n">
-        <v>3240</v>
+        <v>3200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>3600</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44617</v>
+        <v>44582</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="N15" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44231</v>
+        <v>44236</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="O16" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44237</v>
+        <v>44188</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P17" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44586</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P2" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44978</v>
+        <v>44582</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44168</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44174</v>
+        <v>44980</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44231</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44586</v>
+        <v>44174</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44582</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44980</v>
+        <v>44208</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="N10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44232</v>
+        <v>44238</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44188</v>
+        <v>44617</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O12" t="n">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="P12" t="n">
-        <v>3240</v>
+        <v>6500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1620</v>
+        <v>3250</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44238</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44168</v>
+        <v>44978</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N14" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44617</v>
+        <v>44236</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O15" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44231</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44586</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O2" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44582</v>
+        <v>44978</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44168</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44980</v>
+        <v>44174</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44231</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44174</v>
+        <v>44586</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44582</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44980</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44617</v>
+        <v>44188</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>3240</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>1620</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O13" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44978</v>
+        <v>44168</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44236</v>
+        <v>44617</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>3250</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44231</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44586</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O2" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44582</v>
+        <v>44586</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>5000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44168</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44980</v>
+        <v>44232</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44231</v>
+        <v>44208</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44174</v>
+        <v>44168</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44174</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44232</v>
+        <v>44617</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44208</v>
+        <v>44188</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
         <v>3000</v>
       </c>
       <c r="O10" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44617</v>
+        <v>44978</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N12" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O13" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44978</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
         <v>3000</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44236</v>
+        <v>44582</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44980</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
         <v>3600</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44586</v>
+        <v>44237</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O3" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44231</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44232</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44174</v>
+        <v>44980</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44617</v>
+        <v>44236</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44188</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>3240</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44236</v>
+        <v>44978</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N11" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44978</v>
+        <v>44582</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44237</v>
+        <v>44617</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>3600</v>
+        <v>6500</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1900</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44238</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44582</v>
+        <v>44188</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44980</v>
+        <v>44232</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44238</v>
+        <v>44586</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O17" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P17" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44231</v>
+        <v>44208</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N4" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P4" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44586</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44980</v>
+        <v>44194</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44236</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44174</v>
+        <v>44617</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1600</v>
+        <v>3250</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44978</v>
+        <v>44582</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44582</v>
+        <v>44978</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44617</v>
+        <v>44237</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O13" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44188</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O15" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="P15" t="n">
-        <v>3240</v>
+        <v>3200</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44232</v>
+        <v>44980</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44586</v>
+        <v>44232</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44208</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="O3" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44586</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>3240</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>1620</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44168</v>
+        <v>44237</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44194</v>
+        <v>44980</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44232</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P9" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44617</v>
+        <v>44236</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44582</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O11" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44978</v>
+        <v>44231</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44237</v>
+        <v>44582</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N13" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O13" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44238</v>
+        <v>44174</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O14" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44586</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="O15" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="P15" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44980</v>
+        <v>44617</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P16" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44232</v>
+        <v>44978</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N17" t="n">
         <v>3000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
         <v>3000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N3" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44168</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>8000</v>
+        <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>8000</v>
+        <v>3240</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>1620</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44978</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N5" t="n">
         <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44194</v>
+        <v>44582</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44980</v>
+        <v>44174</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44232</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44236</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,29 +1164,29 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N10" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>4000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44231</v>
+        <v>44586</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44582</v>
+        <v>44617</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O13" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44174</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="O14" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="P14" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44586</v>
+        <v>44236</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O15" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44617</v>
+        <v>44238</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="O16" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3250</v>
+        <v>1900</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44208</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O3" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44237</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O4" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P4" t="n">
-        <v>3240</v>
+        <v>3800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44978</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
         <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3240</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44582</v>
+        <v>44236</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="O6" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44237</v>
+        <v>44168</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,29 +924,29 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="O7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>4000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3800</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44174</v>
+        <v>44586</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
         <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44168</v>
+        <v>44582</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44232</v>
+        <v>44980</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44586</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44231</v>
+        <v>44208</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N14" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44236</v>
+        <v>44174</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="O15" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44238</v>
+        <v>44978</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N16" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O16" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P16" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44980</v>
+        <v>44232</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O17" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P17" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44208</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N3" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44237</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44978</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N5" t="n">
         <v>3000</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="P5" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44236</v>
+        <v>44582</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44168</v>
+        <v>44237</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44586</v>
+        <v>44174</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O9" t="n">
         <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44582</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44980</v>
+        <v>44232</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44586</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44208</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44236</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="O15" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44978</v>
+        <v>44238</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44232</v>
+        <v>44980</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44237</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O2" t="n">
         <v>4000</v>
       </c>
       <c r="P2" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="O3" t="n">
         <v>3400</v>
       </c>
       <c r="P3" t="n">
-        <v>3400</v>
+        <v>3240</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1700</v>
+        <v>1620</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44237</v>
+        <v>44582</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N4" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O4" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44586</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O5" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P5" t="n">
-        <v>3240</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1620</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44168</v>
+        <v>44978</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N7" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O7" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P7" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44586</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44980</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O9" t="n">
         <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44582</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="N10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44980</v>
+        <v>44174</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="O11" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44208</v>
+        <v>44236</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O14" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44174</v>
+        <v>44208</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="N15" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O15" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P15" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44978</v>
+        <v>44231</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O16" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44237</v>
+        <v>44586</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="O2" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="O3" t="n">
         <v>3400</v>
       </c>
       <c r="P3" t="n">
-        <v>3240</v>
+        <v>3400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1620</v>
+        <v>1700</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44582</v>
+        <v>44617</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O4" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44586</v>
+        <v>44980</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44238</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="O6" t="n">
         <v>4000</v>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44978</v>
+        <v>44582</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N7" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,13 +1007,13 @@
         <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>3240</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>1620</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44980</v>
+        <v>44238</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="O9" t="n">
         <v>4000</v>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44168</v>
+        <v>44236</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O10" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P10" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44174</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="O11" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44208</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="N12" t="n">
         <v>3000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44617</v>
+        <v>44978</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="N13" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O13" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P13" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>3600</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44208</v>
+        <v>44168</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N15" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O15" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44231</v>
+        <v>44174</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="O16" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="P16" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Mora.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>45282</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="O3" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="P3" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44617</v>
+        <v>44231</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="O4" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="P4" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3250</v>
+        <v>1700</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44980</v>
+        <v>44617</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O5" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P5" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44980</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>4000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44582</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O7" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44582</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N8" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O8" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="P8" t="n">
-        <v>3240</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1620</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44238</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O9" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>3240</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1900</v>
+        <v>1620</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44236</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="O11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44208</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
         <v>3000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44978</v>
+        <v>44208</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="N13" t="n">
         <v>3000</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44237</v>
+        <v>44978</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N14" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="O14" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44168</v>
+        <v>44237</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="O15" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P15" t="n">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44174</v>
+        <v>44168</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="N16" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="O16" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="P16" t="n">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44232</v>
+        <v>44174</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1727,28 +1727,108 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
+        <v>3200</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>1600</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44232</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100101008</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>200</v>
+      </c>
+      <c r="N18" t="n">
         <v>3000</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O18" t="n">
         <v>3000</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>3000</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S17" t="n">
+      <c r="S18" t="n">
         <v>1500</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T18" t="n">
         <v>2</v>
       </c>
     </row>
